--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2498.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2498.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.588373295360162</v>
+        <v>0.7599915862083435</v>
       </c>
       <c r="B1">
-        <v>3.942796912532601</v>
+        <v>0.7077632546424866</v>
       </c>
       <c r="C1">
-        <v>3.371652991460424</v>
+        <v>3.883739709854126</v>
       </c>
       <c r="D1">
-        <v>2.867407789877076</v>
+        <v>3.049844026565552</v>
       </c>
       <c r="E1">
-        <v>3.131129626241878</v>
+        <v>0.8229544758796692</v>
       </c>
     </row>
   </sheetData>
